--- a/Matlab/nfg-biosim-softsensor-backup/2022_Labordaten_landwirtschaftliche_Substrate.xlsx
+++ b/Matlab/nfg-biosim-softsensor-backup/2022_Labordaten_landwirtschaftliche_Substrate.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dbfz-user.leipzig.dbfz.de\user$\shellmann\Notizen &amp; Unterlagen\Messdaten\Labordaten 2021_2022 final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shellmann\Desktop\Labordaten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF37EF3-CC30-4588-8975-69EF57B40629}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B91778-CA54-4766-B7A6-D1A8F2203DE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{AEE4862D-4A3E-49D3-987F-015B00AA3EF1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14028" activeTab="6" xr2:uid="{AEE4862D-4A3E-49D3-987F-015B00AA3EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Maissilage" sheetId="1" r:id="rId1"/>
     <sheet name="Grassilage" sheetId="4" r:id="rId2"/>
     <sheet name="Getreidestroh" sheetId="7" r:id="rId3"/>
-    <sheet name="Rinderguelle" sheetId="3" r:id="rId4"/>
-    <sheet name="Schweineguelle" sheetId="5" r:id="rId5"/>
-    <sheet name="HTK" sheetId="6" r:id="rId6"/>
+    <sheet name="Zuckerruebensilage" sheetId="8" r:id="rId4"/>
+    <sheet name="Rinderguelle" sheetId="3" r:id="rId5"/>
+    <sheet name="Schweineguelle" sheetId="5" r:id="rId6"/>
+    <sheet name="HTK" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="55">
   <si>
     <t>Probeneingangsnummer</t>
   </si>
@@ -186,6 +187,15 @@
   </si>
   <si>
     <t>Essigsäure tatsächlich [mg/L]</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>Doppelbezeichnung der Probe</t>
+  </si>
+  <si>
+    <t>BK-22-1256</t>
   </si>
 </sst>
 </file>
@@ -261,7 +271,62 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="42"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -571,28 +636,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A464897B-AA9E-468D-815C-0C802AF1F274}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,8 +692,11 @@
       <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -664,7 +733,7 @@
         <v>370.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -687,7 +756,7 @@
         <v>40.944089404854857</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H21" si="0">1000-E3-F3-G3</f>
+        <f>1000-E3-F3-G3</f>
         <v>875.09041392490656</v>
       </c>
       <c r="I3" s="3">
@@ -697,11 +766,11 @@
         <v>2</v>
       </c>
       <c r="K3" s="7">
-        <f t="shared" ref="K3:K21" si="1">I3*J3</f>
+        <f>I3*J3</f>
         <v>393.86</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -721,16 +790,21 @@
         <v>50.695768832068104</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f>1000-E4-F4-G4</f>
         <v>830.55374434989028</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>348.62999999999994</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
       <c r="K4" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <f>I4*J4</f>
+        <v>697.25999999999988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -753,7 +827,7 @@
         <v>41.801090409766402</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f>1000-E5-F5-G5</f>
         <v>851.5375803171396</v>
       </c>
       <c r="I5" s="3">
@@ -763,11 +837,14 @@
         <v>2</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" si="1"/>
+        <f>I5*J5</f>
         <v>682.34999999999991</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -790,7 +867,7 @@
         <v>44.928495252296131</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f>1000-E6-F6-G6</f>
         <v>845.98663687386454</v>
       </c>
       <c r="I6" s="3">
@@ -800,11 +877,11 @@
         <v>2</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" si="1"/>
+        <f>I6*J6</f>
         <v>393.51</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -827,7 +904,7 @@
         <v>44.684852395327631</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f>1000-E7-F7-G7</f>
         <v>861.47267904972125</v>
       </c>
       <c r="I7" s="3">
@@ -837,11 +914,11 @@
         <v>2</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" si="1"/>
+        <f>I7*J7</f>
         <v>488.01</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -861,7 +938,7 @@
         <v>65.227962308290984</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f>1000-E8-F8-G8</f>
         <v>896.45973626800583</v>
       </c>
       <c r="I8" s="3">
@@ -871,11 +948,11 @@
         <v>2</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="1"/>
+        <f>I8*J8</f>
         <v>593.22</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -898,7 +975,7 @@
         <v>42.445189881779143</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f>1000-E9-F9-G9</f>
         <v>847.54255324927908</v>
       </c>
       <c r="I9" s="3">
@@ -908,11 +985,11 @@
         <v>2</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" si="1"/>
+        <f>I9*J9</f>
         <v>934.34</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -935,7 +1012,7 @@
         <v>50.032562074398037</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f>1000-E10-F10-G10</f>
         <v>848.34605088432147</v>
       </c>
       <c r="I10" s="3">
@@ -945,11 +1022,11 @@
         <v>2</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="1"/>
+        <f>I10*J10</f>
         <v>471.40666666666669</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -972,7 +1049,7 @@
         <v>81.440463690106924</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f>1000-E11-F11-G11</f>
         <v>810.65305860469107</v>
       </c>
       <c r="I11" s="3">
@@ -982,11 +1059,11 @@
         <v>2</v>
       </c>
       <c r="K11" s="7">
-        <f t="shared" si="1"/>
+        <f>I11*J11</f>
         <v>1180.25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1009,16 +1086,16 @@
         <v>63.950820233782565</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f>1000-E12-F12-G12</f>
         <v>807.01808227518165</v>
       </c>
       <c r="I12" s="2"/>
       <c r="K12" s="7">
-        <f t="shared" si="1"/>
+        <f>I12*J12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1041,7 +1118,7 @@
         <v>50.157002855170873</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f>1000-E13-F13-G13</f>
         <v>833.54466613497698</v>
       </c>
       <c r="I13" s="3">
@@ -1051,11 +1128,11 @@
         <v>1</v>
       </c>
       <c r="K13" s="7">
-        <f t="shared" si="1"/>
+        <f>I13*J13</f>
         <v>617.755</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1069,16 +1146,16 @@
         <v>37.958861645766149</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f>1000-E14-F14-G14</f>
         <v>962.04113835423391</v>
       </c>
       <c r="I14" s="2"/>
       <c r="K14" s="7">
-        <f t="shared" si="1"/>
+        <f>I14*J14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1101,7 +1178,7 @@
         <v>31.913732178845542</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f>1000-E15-F15-G15</f>
         <v>857.22186292163337</v>
       </c>
       <c r="I15" s="3">
@@ -1111,11 +1188,11 @@
         <v>2</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" si="1"/>
+        <f>I15*J15</f>
         <v>740.62</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1138,7 +1215,7 @@
         <v>23.736164787532818</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f>1000-E16-F16-G16</f>
         <v>828.28654680945817</v>
       </c>
       <c r="I16" s="3">
@@ -1148,11 +1225,11 @@
         <v>2</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="1"/>
+        <f>I16*J16</f>
         <v>226.68</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1175,7 +1252,7 @@
         <v>29.672689411952867</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f>1000-E17-F17-G17</f>
         <v>860.94757609349267</v>
       </c>
       <c r="I17" s="3">
@@ -1185,11 +1262,11 @@
         <v>2</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="1"/>
+        <f>I17*J17</f>
         <v>621.79</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1212,7 +1289,7 @@
         <v>35.080488535418567</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f>1000-E18-F18-G18</f>
         <v>842.92366009887508</v>
       </c>
       <c r="I18" s="3">
@@ -1222,11 +1299,11 @@
         <v>2</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="1"/>
+        <f>I18*J18</f>
         <v>622.58000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1249,7 +1326,7 @@
         <v>30.475552418760362</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f>1000-E19-F19-G19</f>
         <v>863.36176243970033</v>
       </c>
       <c r="I19" s="3">
@@ -1259,11 +1336,11 @@
         <v>2</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="1"/>
+        <f>I19*J19</f>
         <v>509.58000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1283,7 +1360,7 @@
         <v>65.500994743598682</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f>1000-E20-F20-G20</f>
         <v>886.3443305933414</v>
       </c>
       <c r="I20" s="3">
@@ -1293,11 +1370,11 @@
         <v>2</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="1"/>
+        <f>I20*J20</f>
         <v>564.48</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1317,7 +1394,7 @@
         <v>39.896952984712883</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f>1000-E21-F21-G21</f>
         <v>850.39742192556218</v>
       </c>
       <c r="I21" s="3">
@@ -1327,11 +1404,14 @@
         <v>2</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" si="1"/>
+        <f>I21*J21</f>
         <v>145.81333333333333</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:L21">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1342,25 +1422,25 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1475,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1424,7 +1504,7 @@
       <c r="I2" s="2"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1461,7 +1541,7 @@
         <v>1374.28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1481,7 +1561,7 @@
       <c r="I4" s="2"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1518,52 +1598,52 @@
         <v>995.40666666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K21" s="7"/>
     </row>
   </sheetData>
@@ -1576,25 +1656,25 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1649,7 +1729,7 @@
       <c r="I2" s="2"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1678,58 +1758,58 @@
       <c r="I3" s="2"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K21" s="7"/>
     </row>
   </sheetData>
@@ -1738,29 +1818,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEFC0F8-0B1F-48A5-8E73-F17095CDF4F8}">
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19190215-3B04-44F1-A0AA-9C662865EE08}">
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1794,270 +1861,6 @@
       <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2">
-        <v>8.5148555401402266</v>
-      </c>
-      <c r="C2">
-        <v>91.485144459859768</v>
-      </c>
-      <c r="D2">
-        <v>1.207603906870149</v>
-      </c>
-      <c r="E2">
-        <v>235.61355121428051</v>
-      </c>
-      <c r="F2">
-        <v>148.60813754572911</v>
-      </c>
-      <c r="G2">
-        <v>37.528491116868494</v>
-      </c>
-      <c r="H2">
-        <f>1000-E2-F2-G2</f>
-        <v>578.24982012312194</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1259.1199999999999</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2" s="7">
-        <f>I2*J2</f>
-        <v>6295.5999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3">
-        <v>8.5782756253157331</v>
-      </c>
-      <c r="C3">
-        <v>91.42172437468426</v>
-      </c>
-      <c r="D3">
-        <v>1.4993162797448218</v>
-      </c>
-      <c r="E3">
-        <v>260.2344204512255</v>
-      </c>
-      <c r="F3">
-        <v>143.87120591298105</v>
-      </c>
-      <c r="G3">
-        <v>90.612345131764187</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H7" si="0">1000-E3-F3-G3</f>
-        <v>505.2820285040292</v>
-      </c>
-      <c r="I3" s="3">
-        <v>765.89</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3" s="7">
-        <f t="shared" ref="K3:K7" si="1">I3*J3</f>
-        <v>7658.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>8.2486859443087326</v>
-      </c>
-      <c r="C4">
-        <v>91.751314055691267</v>
-      </c>
-      <c r="D4">
-        <v>1.3395691852130924</v>
-      </c>
-      <c r="E4">
-        <v>264.17329956584581</v>
-      </c>
-      <c r="F4">
-        <v>159.6669072436294</v>
-      </c>
-      <c r="G4">
-        <v>46.071013882668503</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>530.08877930785638</v>
-      </c>
-      <c r="I4" s="3">
-        <v>117.56666666666666</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7">
-        <f t="shared" si="1"/>
-        <v>1175.6666666666665</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5">
-        <v>8.5684024633143263</v>
-      </c>
-      <c r="C5">
-        <v>91.431597536685672</v>
-      </c>
-      <c r="D5">
-        <v>1.0423202119182167</v>
-      </c>
-      <c r="E5">
-        <v>267.89387886373277</v>
-      </c>
-      <c r="F5">
-        <v>175.7908712982329</v>
-      </c>
-      <c r="G5">
-        <v>53.516818872303439</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>502.79843096573092</v>
-      </c>
-      <c r="I5" s="3">
-        <v>173.39666666666668</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5" s="7">
-        <f t="shared" si="1"/>
-        <v>1733.9666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>8.1065700836342689</v>
-      </c>
-      <c r="C6">
-        <v>91.893429916365733</v>
-      </c>
-      <c r="D6">
-        <v>1.2497506468625741</v>
-      </c>
-      <c r="E6">
-        <v>270.9357131890161</v>
-      </c>
-      <c r="F6">
-        <v>170.39100387597983</v>
-      </c>
-      <c r="G6">
-        <v>47.756373443244243</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>510.91690949175995</v>
-      </c>
-      <c r="I6" s="3">
-        <v>17.77</v>
-      </c>
-      <c r="J6">
-        <v>10</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="1"/>
-        <v>177.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7">
-        <v>10.657886990966901</v>
-      </c>
-      <c r="C7">
-        <v>89.342113009033099</v>
-      </c>
-      <c r="D7">
-        <v>0.96489482049755748</v>
-      </c>
-      <c r="E7">
-        <v>240.01345562729</v>
-      </c>
-      <c r="F7">
-        <v>162.83671616970918</v>
-      </c>
-      <c r="G7">
-        <v>31.490353530314618</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>565.65947467268631</v>
-      </c>
-      <c r="I7" s="3">
-        <v>455.52</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="1"/>
-        <v>4555.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2065,29 +1868,356 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEFC0F8-0B1F-48A5-8E73-F17095CDF4F8}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>8.5148555401402266</v>
+      </c>
+      <c r="C2">
+        <v>91.485144459859768</v>
+      </c>
+      <c r="D2">
+        <v>1.207603906870149</v>
+      </c>
+      <c r="E2">
+        <v>235.61355121428051</v>
+      </c>
+      <c r="F2">
+        <v>148.60813754572911</v>
+      </c>
+      <c r="G2">
+        <v>37.528491116868494</v>
+      </c>
+      <c r="H2">
+        <f>1000-E2-F2-G2</f>
+        <v>578.24982012312194</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1259.1199999999999</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2" s="7">
+        <f>I2*J2</f>
+        <v>6295.5999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>8.5782756253157331</v>
+      </c>
+      <c r="C3">
+        <v>91.42172437468426</v>
+      </c>
+      <c r="D3">
+        <v>1.4993162797448218</v>
+      </c>
+      <c r="E3">
+        <v>260.2344204512255</v>
+      </c>
+      <c r="F3">
+        <v>143.87120591298105</v>
+      </c>
+      <c r="G3">
+        <v>90.612345131764187</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="0">1000-E3-F3-G3</f>
+        <v>505.2820285040292</v>
+      </c>
+      <c r="I3" s="3">
+        <v>765.89</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3" s="7">
+        <f t="shared" ref="K3:K7" si="1">I3*J3</f>
+        <v>7658.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>8.2486859443087326</v>
+      </c>
+      <c r="C4">
+        <v>91.751314055691267</v>
+      </c>
+      <c r="D4">
+        <v>1.3395691852130924</v>
+      </c>
+      <c r="E4">
+        <v>264.17329956584581</v>
+      </c>
+      <c r="F4">
+        <v>159.6669072436294</v>
+      </c>
+      <c r="G4">
+        <v>46.071013882668503</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>530.08877930785638</v>
+      </c>
+      <c r="I4" s="3">
+        <v>117.56666666666666</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" si="1"/>
+        <v>1175.6666666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>8.5684024633143263</v>
+      </c>
+      <c r="C5">
+        <v>91.431597536685672</v>
+      </c>
+      <c r="D5">
+        <v>1.0423202119182167</v>
+      </c>
+      <c r="E5">
+        <v>267.89387886373277</v>
+      </c>
+      <c r="F5">
+        <v>175.7908712982329</v>
+      </c>
+      <c r="G5">
+        <v>53.516818872303439</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>502.79843096573092</v>
+      </c>
+      <c r="I5" s="3">
+        <v>173.39666666666668</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="1"/>
+        <v>1733.9666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>8.1065700836342689</v>
+      </c>
+      <c r="C6">
+        <v>91.893429916365733</v>
+      </c>
+      <c r="D6">
+        <v>1.2497506468625741</v>
+      </c>
+      <c r="E6">
+        <v>270.9357131890161</v>
+      </c>
+      <c r="F6">
+        <v>170.39100387597983</v>
+      </c>
+      <c r="G6">
+        <v>47.756373443244243</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>510.91690949175995</v>
+      </c>
+      <c r="I6" s="3">
+        <v>17.77</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="1"/>
+        <v>177.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>10.657886990966901</v>
+      </c>
+      <c r="C7">
+        <v>89.342113009033099</v>
+      </c>
+      <c r="D7">
+        <v>0.96489482049755748</v>
+      </c>
+      <c r="E7">
+        <v>240.01345562729</v>
+      </c>
+      <c r="F7">
+        <v>162.83671616970918</v>
+      </c>
+      <c r="G7">
+        <v>31.490353530314618</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>565.65947467268631</v>
+      </c>
+      <c r="I7" s="3">
+        <v>455.52</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="1"/>
+        <v>4555.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K21" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97342A7-A4B9-46EA-868E-ACCC899EC131}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2122,7 +2252,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -2159,7 +2289,7 @@
         <v>2452.6800000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -2196,7 +2326,7 @@
         <v>511.62666666666661</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2222,7 +2352,7 @@
       <c r="I4" s="6"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -2259,52 +2389,52 @@
         <v>4026.666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K21" s="7"/>
     </row>
   </sheetData>
@@ -2313,30 +2443,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87B9048-F1D1-4E12-A756-955018FCA9B1}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2371,7 +2501,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2408,7 +2538,7 @@
         <v>1184.4933333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -2431,13 +2561,13 @@
         <v>18.568635401808066</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H6" si="0">1000-E3-F3-G3</f>
+        <f>1000-E3-F3-G3</f>
         <v>516.05161662716819</v>
       </c>
       <c r="I3" s="2"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -2460,13 +2590,13 @@
         <v>35.039450570446981</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f>1000-E4-F4-G4</f>
         <v>481.38369135861615</v>
       </c>
       <c r="I4" s="2"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -2489,13 +2619,13 @@
         <v>30.280059600362232</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f>1000-E5-F5-G5</f>
         <v>506.32415700087466</v>
       </c>
       <c r="I5" s="2"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -2518,7 +2648,7 @@
         <v>25.182809228727777</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f>1000-E6-F6-G6</f>
         <v>256.82493110869075</v>
       </c>
       <c r="I6" s="5">
@@ -2528,56 +2658,84 @@
         <v>2</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" ref="K6" si="1">I6*J6</f>
+        <f>I6*J6</f>
         <v>644.98</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>34.407356633227394</v>
+      </c>
+      <c r="C7">
+        <v>65.592643366772606</v>
+      </c>
+      <c r="D7">
+        <v>0.83958583509468943</v>
+      </c>
+      <c r="E7">
+        <v>309.59892584267533</v>
+      </c>
+      <c r="F7">
+        <v>183.41260985984033</v>
+      </c>
+      <c r="G7">
+        <v>30.739446633529511</v>
+      </c>
+      <c r="H7">
+        <f>1000-E7-F7-G7</f>
+        <v>476.24901766395487</v>
+      </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K21" s="7"/>
     </row>
   </sheetData>
+  <sortState ref="A2:K6">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
